--- a/src/main/resources/student.xlsx
+++ b/src/main/resources/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveyu/IdeaProjects/psds/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1808CE5F-B92F-484D-9692-8E468ED0B03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0C2E3-13E5-B440-BEFD-70A4C2745CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{66A7BDEC-2490-3D48-A8AC-9F6179C53DCA}"/>
+    <workbookView xWindow="16720" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{66A7BDEC-2490-3D48-A8AC-9F6179C53DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>编号</t>
   </si>
@@ -45,9 +45,6 @@
     <t>学号</t>
   </si>
   <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
     <t>邮箱</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>个人信息</t>
   </si>
   <si>
-    <t>导师志愿</t>
-  </si>
-  <si>
     <t>密码</t>
   </si>
   <si>
@@ -297,19 +291,13 @@
     <t>zhoumofan@qq.com</t>
   </si>
   <si>
-    <t>320121199811281213</t>
-  </si>
-  <si>
-    <t>320121199811281214</t>
-  </si>
-  <si>
-    <t>320121199811281212</t>
-  </si>
-  <si>
-    <t>320121199811281216</t>
-  </si>
-  <si>
-    <t>320121199811281211</t>
+    <t>导师志愿1</t>
+  </si>
+  <si>
+    <t>导师志愿2</t>
+  </si>
+  <si>
+    <t>导师志愿3</t>
   </si>
 </sst>
 </file>
@@ -354,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,13 +350,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -684,20 +665,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC72C14E-2C28-8047-92DD-13E64A95F3A3}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="28.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +690,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -720,863 +700,776 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>20170001</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1">
         <v>20170001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>20170002</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1">
         <v>20170002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>20170003</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1">
         <v>20170003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>20170004</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="1">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1">
         <v>20170004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>20170005</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="1">
+        <v>53</v>
+      </c>
+      <c r="K6" s="1">
         <v>20170005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>20170006</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1">
         <v>20170006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>20170007</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1">
         <v>20170007</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>20170008</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="1">
+        <v>54</v>
+      </c>
+      <c r="K9" s="1">
         <v>20170008</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>20170009</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="1">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1">
         <v>20170009</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>20170010</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="1">
+        <v>56</v>
+      </c>
+      <c r="K11" s="1">
         <v>20170010</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>20170011</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>47</v>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="1">
+        <v>52</v>
+      </c>
+      <c r="K12" s="1">
         <v>20170011</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>20170012</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="1">
+        <v>57</v>
+      </c>
+      <c r="K13" s="1">
         <v>20170012</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
         <v>20170013</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>49</v>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="1">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1">
         <v>20170013</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
         <v>20170014</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>20170014</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>20170015</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>20170015</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>20170016</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>64</v>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="1">
+        <v>63</v>
+      </c>
+      <c r="K17" s="1">
         <v>20170016</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <v>20170017</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>63</v>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="1">
+        <v>60</v>
+      </c>
+      <c r="K18" s="1">
         <v>20170017</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1">
         <v>20170018</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="1">
+        <v>20170018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="1">
-        <v>20170018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>20170019</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>70</v>
+      <c r="E20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="1">
+        <v>66</v>
+      </c>
+      <c r="K20" s="1">
         <v>20170019</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1">
         <v>20170020</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="1">
+        <v>20170020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="1">
-        <v>20170020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1">
         <v>20170021</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
+      <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="1">
+        <v>52</v>
+      </c>
+      <c r="K22" s="1">
         <v>20170021</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
         <v>20170022</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>81</v>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="1">
+        <v>53</v>
+      </c>
+      <c r="K23" s="1">
         <v>20170022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
         <v>20170023</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>82</v>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="1">
+        <v>26</v>
+      </c>
+      <c r="K24" s="1">
         <v>20170023</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
         <v>20170024</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>83</v>
+      <c r="E25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="1">
+        <v>22</v>
+      </c>
+      <c r="K25" s="1">
         <v>20170024</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1">
         <v>20170025</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>84</v>
+      <c r="E26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="1">
+        <v>54</v>
+      </c>
+      <c r="K26" s="1">
         <v>20170025</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <v>20170026</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>85</v>
+      <c r="E27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="1">
+        <v>55</v>
+      </c>
+      <c r="K27" s="1">
         <v>20170026</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1">
         <v>20170027</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>86</v>
+      <c r="E28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="1">
+        <v>56</v>
+      </c>
+      <c r="K28" s="1">
         <v>20170027</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1">
         <v>20170028</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>87</v>
+      <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="1">
+        <v>52</v>
+      </c>
+      <c r="K29" s="1">
         <v>20170028</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{C05AE4B1-7085-304A-A98B-9A47BC9D29F2}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{8E72C578-F33D-1D43-8E73-77055FF445DF}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{1E144273-747D-C94A-8A82-D7CD6BD01081}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{B148ACB4-68CB-4A48-B48E-4AB767D0F694}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{8C5DE88B-A027-FB4B-9B03-5DFD093BC26D}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{D8B42F66-FF86-9748-B197-DF2FAF7DE0EA}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{130BCA41-6AF8-5347-8AAB-AADC709D8EEA}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{D4B43AFB-DAB6-6448-A262-ED6B0D4FB788}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{FFD9AF31-36BB-A949-8ADB-EB132DFE88E1}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{9AA16378-BDF6-554C-8A97-54C261458CB3}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{FC9B2E75-0702-1D45-A49D-FFADBE798D6C}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{B6ADBCD7-D203-964E-AE8A-E849C1E2EA0A}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{48354E47-D89C-AC4D-98C4-6506D7E186B9}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{682EAFBE-201C-774D-A621-11D9E3039B5A}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{09417401-E9EE-9948-9DAF-40460F2FE317}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{AF583628-C240-5A46-8A5C-F5A8D67C7F7E}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{F474C3B8-561A-104D-BB49-83DCD6F75F0F}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{94B2BBE8-7A94-344E-84A5-1CDCF2CF9079}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{4974A00D-7F95-1B41-91C9-F563DFB0DA05}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{79D21A88-1FED-0641-A6A2-6A74C2480366}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{7DB789F0-322A-194A-B521-32C1D711E4DC}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{0AE5B1FD-3778-FA43-8972-4707B6E2B491}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{1BACF22E-5F8B-7044-AB2C-62B6FBA309AC}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{A040348C-B96A-6249-BF7C-2D59FDE8E611}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{0398ADBF-5511-F74E-9120-A2DA1D6C9A2B}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{32C500B4-65EE-A14D-9DC9-5D295A1CBEB9}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{F3EB765E-25DA-3A45-88C6-FD1846BA2B8F}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{EB8C4BEA-7E1C-F244-A96E-0682F8711E36}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{C05AE4B1-7085-304A-A98B-9A47BC9D29F2}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{8E72C578-F33D-1D43-8E73-77055FF445DF}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{1E144273-747D-C94A-8A82-D7CD6BD01081}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B148ACB4-68CB-4A48-B48E-4AB767D0F694}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{8C5DE88B-A027-FB4B-9B03-5DFD093BC26D}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{D8B42F66-FF86-9748-B197-DF2FAF7DE0EA}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{130BCA41-6AF8-5347-8AAB-AADC709D8EEA}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{D4B43AFB-DAB6-6448-A262-ED6B0D4FB788}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{FFD9AF31-36BB-A949-8ADB-EB132DFE88E1}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{9AA16378-BDF6-554C-8A97-54C261458CB3}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{FC9B2E75-0702-1D45-A49D-FFADBE798D6C}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{B6ADBCD7-D203-964E-AE8A-E849C1E2EA0A}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{48354E47-D89C-AC4D-98C4-6506D7E186B9}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{682EAFBE-201C-774D-A621-11D9E3039B5A}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{09417401-E9EE-9948-9DAF-40460F2FE317}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{AF583628-C240-5A46-8A5C-F5A8D67C7F7E}"/>
+    <hyperlink ref="E17" r:id="rId17" xr:uid="{F474C3B8-561A-104D-BB49-83DCD6F75F0F}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{94B2BBE8-7A94-344E-84A5-1CDCF2CF9079}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{4974A00D-7F95-1B41-91C9-F563DFB0DA05}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{79D21A88-1FED-0641-A6A2-6A74C2480366}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{7DB789F0-322A-194A-B521-32C1D711E4DC}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{0AE5B1FD-3778-FA43-8972-4707B6E2B491}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{1BACF22E-5F8B-7044-AB2C-62B6FBA309AC}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{A040348C-B96A-6249-BF7C-2D59FDE8E611}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{0398ADBF-5511-F74E-9120-A2DA1D6C9A2B}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{32C500B4-65EE-A14D-9DC9-5D295A1CBEB9}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{F3EB765E-25DA-3A45-88C6-FD1846BA2B8F}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{EB8C4BEA-7E1C-F244-A96E-0682F8711E36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/src/main/resources/student.xlsx
+++ b/src/main/resources/student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveyu/IdeaProjects/psds/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0C2E3-13E5-B440-BEFD-70A4C2745CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486AFA02-57E3-4240-B6FA-E632608E1855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{66A7BDEC-2490-3D48-A8AC-9F6179C53DCA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{66A7BDEC-2490-3D48-A8AC-9F6179C53DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>编号</t>
   </si>
@@ -289,15 +289,6 @@
   </si>
   <si>
     <t>zhoumofan@qq.com</t>
-  </si>
-  <si>
-    <t>导师志愿1</t>
-  </si>
-  <si>
-    <t>导师志愿2</t>
-  </si>
-  <si>
-    <t>导师志愿3</t>
   </si>
 </sst>
 </file>
@@ -665,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC72C14E-2C28-8047-92DD-13E64A95F3A3}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,7 +668,7 @@
     <col min="7" max="7" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,19 +691,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -734,11 +716,11 @@
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1">
+      <c r="H2" s="1">
         <v>20170001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -760,11 +742,11 @@
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1">
+      <c r="H3" s="1">
         <v>20170002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -786,11 +768,11 @@
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="1">
+      <c r="H4" s="1">
         <v>20170003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -812,11 +794,11 @@
       <c r="G5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="1">
+      <c r="H5" s="1">
         <v>20170004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -838,11 +820,11 @@
       <c r="G6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="1">
+      <c r="H6" s="1">
         <v>20170005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -864,11 +846,11 @@
       <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="1">
+      <c r="H7" s="1">
         <v>20170006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -890,11 +872,11 @@
       <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="1">
+      <c r="H8" s="1">
         <v>20170007</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -916,11 +898,11 @@
       <c r="G9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="1">
+      <c r="H9" s="1">
         <v>20170008</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -942,11 +924,11 @@
       <c r="G10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="1">
+      <c r="H10" s="1">
         <v>20170009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -968,11 +950,11 @@
       <c r="G11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="1">
+      <c r="H11" s="1">
         <v>20170010</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -994,11 +976,11 @@
       <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="1">
+      <c r="H12" s="1">
         <v>20170011</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1020,11 +1002,11 @@
       <c r="G13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="1">
+      <c r="H13" s="1">
         <v>20170012</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1046,11 +1028,11 @@
       <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="1">
+      <c r="H14" s="1">
         <v>20170013</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1072,11 +1054,11 @@
       <c r="G15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="1">
+      <c r="H15" s="1">
         <v>20170014</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1098,11 +1080,11 @@
       <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="1">
+      <c r="H16" s="1">
         <v>20170015</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1124,11 +1106,11 @@
       <c r="G17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="1">
+      <c r="H17" s="1">
         <v>20170016</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1150,11 +1132,11 @@
       <c r="G18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="1">
+      <c r="H18" s="1">
         <v>20170017</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1176,11 +1158,11 @@
       <c r="G19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="1">
+      <c r="H19" s="1">
         <v>20170018</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1202,11 +1184,11 @@
       <c r="G20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="1">
+      <c r="H20" s="1">
         <v>20170019</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1228,11 +1210,11 @@
       <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="1">
+      <c r="H21" s="1">
         <v>20170020</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1254,11 +1236,11 @@
       <c r="G22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="1">
+      <c r="H22" s="1">
         <v>20170021</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1280,11 +1262,11 @@
       <c r="G23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="1">
+      <c r="H23" s="1">
         <v>20170022</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1306,11 +1288,11 @@
       <c r="G24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="1">
+      <c r="H24" s="1">
         <v>20170023</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1332,11 +1314,11 @@
       <c r="G25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="1">
+      <c r="H25" s="1">
         <v>20170024</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1358,11 +1340,11 @@
       <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="1">
+      <c r="H26" s="1">
         <v>20170025</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1384,11 +1366,11 @@
       <c r="G27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="1">
+      <c r="H27" s="1">
         <v>20170026</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1410,11 +1392,11 @@
       <c r="G28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="1">
+      <c r="H28" s="1">
         <v>20170027</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1436,7 +1418,7 @@
       <c r="G29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="1">
+      <c r="H29" s="1">
         <v>20170028</v>
       </c>
     </row>

--- a/src/main/resources/student.xlsx
+++ b/src/main/resources/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveyu/IdeaProjects/psds/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486AFA02-57E3-4240-B6FA-E632608E1855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4615F721-BC71-B340-8DB9-DC1961C95984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{66A7BDEC-2490-3D48-A8AC-9F6179C53DCA}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>编号</t>
   </si>
@@ -81,18 +75,9 @@
     <t>软件工程</t>
   </si>
   <si>
-    <t>金融</t>
-  </si>
-  <si>
     <t>计算机</t>
   </si>
   <si>
-    <t>财务</t>
-  </si>
-  <si>
-    <t>会计</t>
-  </si>
-  <si>
     <t>不会唱歌的程序员不是好歌手</t>
   </si>
   <si>
@@ -201,9 +186,6 @@
     <t>也会写诗</t>
   </si>
   <si>
-    <t>我想读计算机硕士</t>
-  </si>
-  <si>
     <t>舞蹈专业的跨考</t>
   </si>
   <si>
@@ -289,6 +271,12 @@
   </si>
   <si>
     <t>zhoumofan@qq.com</t>
+  </si>
+  <si>
+    <t>我想读软件硕士</t>
+  </si>
+  <si>
+    <t>我想读硕士</t>
   </si>
 </sst>
 </file>
@@ -659,7 +647,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>20170001</v>
@@ -737,10 +725,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>20170002</v>
@@ -760,13 +748,13 @@
         <v>20170003</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1">
         <v>20170003</v>
@@ -777,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -786,13 +774,13 @@
         <v>20170004</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1">
         <v>20170004</v>
@@ -803,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -812,13 +800,13 @@
         <v>20170005</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1">
         <v>20170005</v>
@@ -829,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -838,13 +826,13 @@
         <v>20170006</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>20170006</v>
@@ -855,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -864,13 +852,13 @@
         <v>20170007</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1">
         <v>20170007</v>
@@ -881,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -890,13 +878,13 @@
         <v>20170008</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1">
         <v>20170008</v>
@@ -907,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -916,13 +904,13 @@
         <v>20170009</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1">
         <v>20170009</v>
@@ -933,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -942,13 +930,13 @@
         <v>20170010</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="H11" s="1">
         <v>20170010</v>
@@ -959,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -968,13 +956,13 @@
         <v>20170011</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1">
         <v>20170011</v>
@@ -985,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -994,13 +982,13 @@
         <v>20170012</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1">
         <v>20170012</v>
@@ -1011,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -1020,13 +1008,13 @@
         <v>20170013</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1">
         <v>20170013</v>
@@ -1037,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1046,13 +1034,13 @@
         <v>20170014</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1">
         <v>20170014</v>
@@ -1063,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1072,13 +1060,13 @@
         <v>20170015</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1">
         <v>20170015</v>
@@ -1089,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1098,13 +1086,13 @@
         <v>20170016</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H17" s="1">
         <v>20170016</v>
@@ -1115,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1124,13 +1112,13 @@
         <v>20170017</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1">
         <v>20170017</v>
@@ -1141,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1150,13 +1138,13 @@
         <v>20170018</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1">
         <v>20170018</v>
@@ -1167,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1176,13 +1164,13 @@
         <v>20170019</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1">
         <v>20170019</v>
@@ -1193,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1202,13 +1190,13 @@
         <v>20170020</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H21" s="1">
         <v>20170020</v>
@@ -1219,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1228,13 +1216,13 @@
         <v>20170021</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1">
         <v>20170021</v>
@@ -1245,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
@@ -1254,13 +1242,13 @@
         <v>20170022</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1">
         <v>20170022</v>
@@ -1271,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1280,13 +1268,13 @@
         <v>20170023</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H24" s="1">
         <v>20170023</v>
@@ -1297,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1306,13 +1294,13 @@
         <v>20170024</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H25" s="1">
         <v>20170024</v>
@@ -1323,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1332,13 +1320,13 @@
         <v>20170025</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H26" s="1">
         <v>20170025</v>
@@ -1349,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>14</v>
@@ -1358,13 +1346,13 @@
         <v>20170026</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H27" s="1">
         <v>20170026</v>
@@ -1375,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
@@ -1384,13 +1372,13 @@
         <v>20170027</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H28" s="1">
         <v>20170027</v>
@@ -1401,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1410,13 +1398,13 @@
         <v>20170028</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H29" s="1">
         <v>20170028</v>
